--- a/AutomationFramework/TestData/DataSheet.xlsx
+++ b/AutomationFramework/TestData/DataSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\git\Automation-Framework\Automation Framework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\git\Automation-Framework\AutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A355C3-D60A-4BF1-97A7-43C55691CF6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E887843B-99D7-41D2-A2CC-FB3E2E9F124D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30A5145C-3F96-4464-B482-0FD2A8AD8289}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Browser</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Default wait time</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -151,7 +148,7 @@
     <t>Tue, 13 Apr 2021</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Defaultwaittime</t>
   </si>
 </sst>
 </file>
@@ -582,7 +579,7 @@
   <dimension ref="H4:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +591,7 @@
   <sheetData>
     <row r="4" spans="8:15" ht="46.2" x14ac:dyDescent="0.85">
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
@@ -625,12 +622,12 @@
         <v>2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="8:15" ht="18" x14ac:dyDescent="0.35">
       <c r="J14" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="K14" s="6">
         <v>90</v>
@@ -639,7 +636,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K11" xr:uid="{B327DB4C-05E0-47FC-805D-9C24BD2CA054}">
-      <formula1>"Chrome,IE,FireFox"</formula1>
+      <formula1>"Chrome,IE,FireFox,Chrome Headless,HTML Unit"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K13" xr:uid="{91C3BC18-8304-48EC-B973-3B4587EC858F}">
       <formula1>"Yes,No"</formula1>
@@ -654,7 +651,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,26 +662,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +698,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,24 +710,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229A406-6429-4380-A0C4-CD171B0FA3C4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -757,54 +756,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948E3839-E6D1-4C81-A7CD-00BF1A347CAF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -831,36 +830,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
